--- a/VT_Model_ELC_V01.xlsx
+++ b/VT_Model_ELC_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_MID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Studia\MGR sem.2\Integrated Energy Resource Planning\Model_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9A9B7F-B004-4E22-8486-CB02F943BF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C466BA7-7752-4705-9ED9-777A93D54EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="901" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BALANCE" sheetId="138" r:id="rId1"/>
@@ -575,7 +575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="305">
   <si>
     <t>Typ jednostki wytwórczej</t>
   </si>
@@ -1586,6 +1586,27 @@
   </si>
   <si>
     <t>Existing Hard Coal Heating Plants</t>
+  </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>COM_PKRSV</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>\I:</t>
+  </si>
+  <si>
+    <t>Value in Region</t>
+  </si>
+  <si>
+    <t>COM_PKFLX</t>
   </si>
 </sst>
 </file>
@@ -3132,7 +3153,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
@@ -3619,6 +3640,11 @@
     <xf numFmtId="0" fontId="40" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="40" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="21" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="40" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="40" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="40" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="40" fillId="9" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3670,17 +3696,7 @@
     <xf numFmtId="169" fontId="23" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="40" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="40" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="40" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="40" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="40" fillId="9" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
@@ -4593,43 +4609,43 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="185" t="s">
         <v>238</v>
       </c>
       <c r="C2" s="185"/>
     </row>
-    <row r="4" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="200" t="s">
         <v>215</v>
       </c>
       <c r="C4" s="200"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="200" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="200"/>
     </row>
-    <row r="6" spans="2:10" ht="39" x14ac:dyDescent="0.25">
-      <c r="B6" s="288" t="s">
+    <row r="6" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B6" s="293" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="291" t="s">
+      <c r="C6" s="296" t="s">
         <v>200</v>
       </c>
       <c r="D6" s="203" t="s">
@@ -4654,9 +4670,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="52" x14ac:dyDescent="0.25">
-      <c r="B7" s="289"/>
-      <c r="C7" s="292"/>
+    <row r="7" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B7" s="294"/>
+      <c r="C7" s="297"/>
       <c r="D7" s="139" t="s">
         <v>201</v>
       </c>
@@ -4679,9 +4695,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="290"/>
-      <c r="C8" s="293"/>
+    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="295"/>
+      <c r="C8" s="298"/>
       <c r="D8" s="199" t="s">
         <v>6</v>
       </c>
@@ -4704,7 +4720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="206" t="s">
         <v>12</v>
       </c>
@@ -4727,7 +4743,7 @@
       <c r="I9" s="198"/>
       <c r="J9" s="207"/>
     </row>
-    <row r="10" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="206" t="s">
         <v>13</v>
       </c>
@@ -4750,7 +4766,7 @@
       <c r="I10" s="198"/>
       <c r="J10" s="207"/>
     </row>
-    <row r="11" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="206" t="s">
         <v>14</v>
       </c>
@@ -4775,7 +4791,7 @@
       <c r="I11" s="198"/>
       <c r="J11" s="207"/>
     </row>
-    <row r="12" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="206" t="s">
         <v>15</v>
       </c>
@@ -4800,7 +4816,7 @@
         <v>32467</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="206" t="s">
         <v>16</v>
       </c>
@@ -4819,7 +4835,7 @@
       <c r="I13" s="198"/>
       <c r="J13" s="207"/>
     </row>
-    <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="206" t="s">
         <v>17</v>
       </c>
@@ -4838,7 +4854,7 @@
       <c r="I14" s="198"/>
       <c r="J14" s="207"/>
     </row>
-    <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="208" t="s">
         <v>18</v>
       </c>
@@ -4861,7 +4877,7 @@
       <c r="I15" s="198"/>
       <c r="J15" s="207"/>
     </row>
-    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="209" t="s">
         <v>19</v>
       </c>
@@ -4882,7 +4898,7 @@
       <c r="I16" s="210"/>
       <c r="J16" s="212"/>
     </row>
-    <row r="17" spans="2:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="202" t="s">
         <v>214</v>
       </c>
@@ -4906,21 +4922,21 @@
       </c>
       <c r="C20" s="202"/>
     </row>
-    <row r="21" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="200"/>
       <c r="C21" s="200"/>
       <c r="D21" s="200"/>
       <c r="E21" s="200"/>
       <c r="F21" s="200"/>
     </row>
-    <row r="22" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="200"/>
       <c r="C22" s="200"/>
       <c r="D22" s="200"/>
       <c r="E22" s="200"/>
       <c r="F22" s="200"/>
     </row>
-    <row r="23" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="185" t="s">
         <v>274</v>
       </c>
@@ -4929,7 +4945,7 @@
       <c r="E23" s="200"/>
       <c r="F23" s="200"/>
     </row>
-    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="200" t="s">
         <v>224</v>
       </c>
@@ -4938,7 +4954,7 @@
       <c r="E25" s="200"/>
       <c r="F25" s="200"/>
     </row>
-    <row r="26" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="200" t="s">
         <v>223</v>
       </c>
@@ -4947,11 +4963,11 @@
       <c r="E26" s="200"/>
       <c r="F26" s="200"/>
     </row>
-    <row r="27" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="286" t="s">
+    <row r="27" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="291" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="284" t="s">
+      <c r="C27" s="289" t="s">
         <v>217</v>
       </c>
       <c r="D27" s="203" t="s">
@@ -4962,9 +4978,9 @@
       </c>
       <c r="F27" s="200"/>
     </row>
-    <row r="28" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="287"/>
-      <c r="C28" s="285"/>
+    <row r="28" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="292"/>
+      <c r="C28" s="290"/>
       <c r="D28" s="139" t="s">
         <v>222</v>
       </c>
@@ -4973,7 +4989,7 @@
       </c>
       <c r="F28" s="200"/>
     </row>
-    <row r="29" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="214" t="s">
         <v>24</v>
       </c>
@@ -4989,7 +5005,7 @@
       <c r="F29" s="200"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="214" t="s">
         <v>24</v>
       </c>
@@ -5005,7 +5021,7 @@
       <c r="F30" s="200"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="214" t="s">
         <v>24</v>
       </c>
@@ -5021,7 +5037,7 @@
       <c r="F31" s="200"/>
       <c r="G31" s="142"/>
     </row>
-    <row r="32" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="216" t="s">
         <v>25</v>
       </c>
@@ -5036,7 +5052,7 @@
       </c>
       <c r="F32" s="200"/>
     </row>
-    <row r="33" spans="2:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="202" t="s">
         <v>214</v>
       </c>
@@ -5047,7 +5063,7 @@
       <c r="O33" s="142"/>
       <c r="P33" s="142"/>
     </row>
-    <row r="34" spans="2:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="264" t="s">
         <v>20</v>
       </c>
@@ -5056,7 +5072,7 @@
       <c r="E34" s="201"/>
       <c r="F34" s="200"/>
     </row>
-    <row r="35" spans="2:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="264" t="s">
         <v>240</v>
       </c>
@@ -5065,21 +5081,21 @@
       <c r="E35" s="201"/>
       <c r="F35" s="200"/>
     </row>
-    <row r="36" spans="2:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="200"/>
       <c r="C36" s="200"/>
       <c r="D36" s="200"/>
       <c r="E36" s="201"/>
       <c r="F36" s="200"/>
     </row>
-    <row r="37" spans="2:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="200"/>
       <c r="C37" s="200"/>
       <c r="D37" s="200"/>
       <c r="E37" s="201"/>
       <c r="F37" s="200"/>
     </row>
-    <row r="38" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="185" t="s">
         <v>239</v>
       </c>
@@ -5088,14 +5104,14 @@
       <c r="E38" s="201"/>
       <c r="F38" s="200"/>
     </row>
-    <row r="39" spans="2:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="200"/>
       <c r="C39" s="200"/>
       <c r="D39" s="200"/>
       <c r="E39" s="201"/>
       <c r="F39" s="200"/>
     </row>
-    <row r="40" spans="2:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="200" t="s">
         <v>226</v>
       </c>
@@ -5104,7 +5120,7 @@
       <c r="E40" s="201"/>
       <c r="F40" s="200"/>
     </row>
-    <row r="41" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="200" t="s">
         <v>225</v>
       </c>
@@ -5113,11 +5129,11 @@
       <c r="E41" s="201"/>
       <c r="F41" s="200"/>
     </row>
-    <row r="42" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="286" t="s">
+    <row r="42" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="291" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="284" t="s">
+      <c r="C42" s="289" t="s">
         <v>217</v>
       </c>
       <c r="D42" s="219" t="s">
@@ -5128,9 +5144,9 @@
       </c>
       <c r="F42" s="200"/>
     </row>
-    <row r="43" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="287"/>
-      <c r="C43" s="285"/>
+    <row r="43" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="292"/>
+      <c r="C43" s="290"/>
       <c r="D43" s="140" t="s">
         <v>35</v>
       </c>
@@ -5139,7 +5155,7 @@
       </c>
       <c r="F43" s="200"/>
     </row>
-    <row r="44" spans="2:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="214" t="s">
         <v>24</v>
       </c>
@@ -5155,7 +5171,7 @@
       </c>
       <c r="F44" s="200"/>
     </row>
-    <row r="45" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="216" t="s">
         <v>25</v>
       </c>
@@ -5171,7 +5187,7 @@
       </c>
       <c r="F45" s="200"/>
     </row>
-    <row r="46" spans="2:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="202" t="s">
         <v>214</v>
       </c>
@@ -5180,7 +5196,7 @@
       <c r="E46" s="200"/>
       <c r="F46" s="200"/>
     </row>
-    <row r="47" spans="2:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="264" t="s">
         <v>20</v>
       </c>
@@ -5194,7 +5210,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="200"/>
       <c r="C50" s="200"/>
     </row>
@@ -5221,15 +5237,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="185" t="s">
         <v>158</v>
       </c>
@@ -5249,7 +5265,7 @@
       <c r="G3" s="159"/>
       <c r="H3" s="159"/>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="157"/>
       <c r="C4" s="155" t="s">
         <v>159</v>
@@ -5257,7 +5273,7 @@
       <c r="D4" s="159"/>
       <c r="E4" s="159"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="253" t="s">
         <v>73</v>
       </c>
@@ -5277,31 +5293,31 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
         <v>131</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="297" t="s">
+      <c r="D6" s="302" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-    </row>
-    <row r="7" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+    </row>
+    <row r="7" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
         <v>190</v>
       </c>
       <c r="C7" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="298" t="s">
+      <c r="D7" s="303" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="166" t="str">
@@ -5394,53 +5410,53 @@
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="115" customWidth="1"/>
-    <col min="2" max="4" width="6.453125" style="115" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" style="115" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="115" customWidth="1"/>
-    <col min="7" max="8" width="7.1796875" style="115" customWidth="1"/>
-    <col min="9" max="10" width="3.453125" style="115" customWidth="1"/>
-    <col min="11" max="11" width="7.1796875" style="115" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="115" customWidth="1"/>
+    <col min="2" max="4" width="6.44140625" style="115" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="115" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="115" customWidth="1"/>
+    <col min="7" max="8" width="7.21875" style="115" customWidth="1"/>
+    <col min="9" max="10" width="3.44140625" style="115" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="115" customWidth="1"/>
     <col min="12" max="12" width="12" style="115" customWidth="1"/>
-    <col min="13" max="13" width="8.90625" style="115" customWidth="1"/>
-    <col min="14" max="16" width="7.1796875" style="115" customWidth="1"/>
-    <col min="17" max="17" width="8.1796875" style="115" customWidth="1"/>
-    <col min="18" max="18" width="12.1796875" style="115" customWidth="1"/>
-    <col min="19" max="19" width="8.6328125" style="115" customWidth="1"/>
-    <col min="20" max="21" width="7.1796875" style="115" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="115" customWidth="1"/>
+    <col min="14" max="16" width="7.21875" style="115" customWidth="1"/>
+    <col min="17" max="17" width="8.21875" style="115" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" style="115" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="115" customWidth="1"/>
+    <col min="20" max="21" width="7.21875" style="115" customWidth="1"/>
     <col min="22" max="22" width="5" style="115" customWidth="1"/>
-    <col min="23" max="23" width="7.1796875" style="115" customWidth="1"/>
-    <col min="24" max="24" width="12.81640625" style="115" customWidth="1"/>
-    <col min="25" max="25" width="7.1796875" style="115" customWidth="1"/>
-    <col min="26" max="26" width="5.453125" style="115" customWidth="1"/>
-    <col min="27" max="27" width="6.453125" style="115" customWidth="1"/>
-    <col min="28" max="28" width="5.453125" style="115" customWidth="1"/>
+    <col min="23" max="23" width="7.21875" style="115" customWidth="1"/>
+    <col min="24" max="24" width="12.77734375" style="115" customWidth="1"/>
+    <col min="25" max="25" width="7.21875" style="115" customWidth="1"/>
+    <col min="26" max="26" width="5.44140625" style="115" customWidth="1"/>
+    <col min="27" max="27" width="6.44140625" style="115" customWidth="1"/>
+    <col min="28" max="28" width="5.44140625" style="115" customWidth="1"/>
     <col min="29" max="29" width="7" style="115" customWidth="1"/>
     <col min="30" max="30" width="12" style="115" customWidth="1"/>
     <col min="31" max="31" width="7" style="115" customWidth="1"/>
-    <col min="32" max="32" width="5.81640625" style="115" customWidth="1"/>
+    <col min="32" max="32" width="5.77734375" style="115" customWidth="1"/>
     <col min="33" max="33" width="13" style="115" customWidth="1"/>
-    <col min="34" max="34" width="5.81640625" style="115" customWidth="1"/>
-    <col min="35" max="35" width="4.1796875" style="115" customWidth="1"/>
-    <col min="36" max="36" width="12.81640625" style="115" customWidth="1"/>
-    <col min="37" max="38" width="4.1796875" style="115" customWidth="1"/>
-    <col min="39" max="16384" width="9.1796875" style="115"/>
+    <col min="34" max="34" width="5.77734375" style="115" customWidth="1"/>
+    <col min="35" max="35" width="4.21875" style="115" customWidth="1"/>
+    <col min="36" max="36" width="12.77734375" style="115" customWidth="1"/>
+    <col min="37" max="38" width="4.21875" style="115" customWidth="1"/>
+    <col min="39" max="16384" width="9.21875" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:35" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="116" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="2:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="114" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:35" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="113"/>
       <c r="C6" s="112"/>
       <c r="D6" s="111"/>
@@ -5489,7 +5505,7 @@
       <c r="AA6" s="112"/>
       <c r="AB6" s="111"/>
     </row>
-    <row r="7" spans="2:35" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:35" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="98"/>
       <c r="C7" s="97" t="s">
         <v>88</v>
@@ -5513,7 +5529,7 @@
       </c>
       <c r="AB7" s="96"/>
     </row>
-    <row r="8" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="87"/>
       <c r="C8" s="86"/>
       <c r="D8" s="85"/>
@@ -5536,7 +5552,7 @@
       <c r="AA8" s="86"/>
       <c r="AB8" s="85"/>
     </row>
-    <row r="9" spans="2:35" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G9" s="80"/>
       <c r="H9" s="79"/>
       <c r="L9" s="101"/>
@@ -5554,13 +5570,13 @@
         <v>27121.55</v>
       </c>
     </row>
-    <row r="10" spans="2:35" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" s="80"/>
       <c r="H10" s="79"/>
       <c r="K10" s="76"/>
       <c r="V10" s="90"/>
     </row>
-    <row r="11" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="80"/>
       <c r="H11" s="79"/>
       <c r="K11" s="75"/>
@@ -5577,7 +5593,7 @@
       <c r="AH11" s="73"/>
       <c r="AI11" s="72"/>
     </row>
-    <row r="12" spans="2:35" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="113"/>
       <c r="C12" s="112"/>
       <c r="D12" s="111"/>
@@ -5637,7 +5653,7 @@
       <c r="AH12" s="111"/>
       <c r="AI12" s="60"/>
     </row>
-    <row r="13" spans="2:35" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:35" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="98"/>
       <c r="C13" s="97" t="s">
         <v>95</v>
@@ -5666,7 +5682,7 @@
       <c r="AH13" s="96"/>
       <c r="AI13" s="60"/>
     </row>
-    <row r="14" spans="2:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="87"/>
       <c r="C14" s="86"/>
       <c r="D14" s="85"/>
@@ -5716,7 +5732,7 @@
       <c r="AH14" s="96"/>
       <c r="AI14" s="60"/>
     </row>
-    <row r="15" spans="2:35" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="80"/>
       <c r="H15" s="47"/>
       <c r="K15" s="46"/>
@@ -5743,7 +5759,7 @@
       <c r="AH15" s="96"/>
       <c r="AI15" s="60"/>
     </row>
-    <row r="16" spans="2:35" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="80"/>
       <c r="H16" s="79"/>
       <c r="I16" s="44"/>
@@ -5769,7 +5785,7 @@
       <c r="AH16" s="85"/>
       <c r="AI16" s="60"/>
     </row>
-    <row r="17" spans="2:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="80"/>
       <c r="H17" s="79"/>
       <c r="I17" s="44"/>
@@ -5789,7 +5805,7 @@
       <c r="AH17" s="35"/>
       <c r="AI17" s="34"/>
     </row>
-    <row r="18" spans="2:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="113"/>
       <c r="C18" s="112"/>
       <c r="D18" s="111"/>
@@ -5830,7 +5846,7 @@
       <c r="U18" s="53"/>
       <c r="V18" s="90"/>
     </row>
-    <row r="19" spans="2:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="98"/>
       <c r="C19" s="97" t="s">
         <v>268</v>
@@ -5847,7 +5863,7 @@
       <c r="U19" s="53"/>
       <c r="V19" s="90"/>
     </row>
-    <row r="20" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="87"/>
       <c r="C20" s="86"/>
       <c r="D20" s="85"/>
@@ -5889,7 +5905,7 @@
       <c r="AK20" s="73"/>
       <c r="AL20" s="72"/>
     </row>
-    <row r="21" spans="2:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="80"/>
       <c r="H21" s="79"/>
       <c r="J21" s="25"/>
@@ -5925,7 +5941,7 @@
       <c r="AK21" s="111"/>
       <c r="AL21" s="60"/>
     </row>
-    <row r="22" spans="2:38" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:38" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G22" s="80"/>
       <c r="H22" s="79"/>
       <c r="J22" s="25"/>
@@ -5945,17 +5961,17 @@
       <c r="AK22" s="96"/>
       <c r="AL22" s="60"/>
     </row>
-    <row r="23" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="80"/>
       <c r="H23" s="79"/>
       <c r="J23" s="25"/>
       <c r="M23" s="275" t="s">
         <v>285</v>
       </c>
-      <c r="P23" s="299">
+      <c r="P23" s="304">
         <v>154125.60999999996</v>
       </c>
-      <c r="Q23" s="299"/>
+      <c r="Q23" s="304"/>
       <c r="R23" s="115" t="s">
         <v>7</v>
       </c>
@@ -5985,7 +6001,7 @@
       <c r="AK23" s="96"/>
       <c r="AL23" s="60"/>
     </row>
-    <row r="24" spans="2:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="113"/>
       <c r="C24" s="112"/>
       <c r="D24" s="111"/>
@@ -6003,10 +6019,10 @@
       <c r="M24" s="275" t="s">
         <v>286</v>
       </c>
-      <c r="P24" s="299">
+      <c r="P24" s="304">
         <v>142240.554</v>
       </c>
-      <c r="Q24" s="299"/>
+      <c r="Q24" s="304"/>
       <c r="R24" s="115" t="s">
         <v>7</v>
       </c>
@@ -6025,7 +6041,7 @@
       <c r="AK24" s="96"/>
       <c r="AL24" s="60"/>
     </row>
-    <row r="25" spans="2:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="98"/>
       <c r="D25" s="96"/>
       <c r="F25" s="49"/>
@@ -6035,10 +6051,10 @@
       <c r="M25" s="275" t="s">
         <v>287</v>
       </c>
-      <c r="P25" s="299">
+      <c r="P25" s="304">
         <v>1075.1959999999999</v>
       </c>
-      <c r="Q25" s="299"/>
+      <c r="Q25" s="304"/>
       <c r="R25" s="115" t="s">
         <v>7</v>
       </c>
@@ -6064,7 +6080,7 @@
       <c r="AK25" s="85"/>
       <c r="AL25" s="60"/>
     </row>
-    <row r="26" spans="2:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="98"/>
       <c r="C26" s="49" t="s">
         <v>272</v>
@@ -6084,10 +6100,10 @@
       <c r="M26" s="275" t="s">
         <v>288</v>
       </c>
-      <c r="P26" s="299">
+      <c r="P26" s="304">
         <v>1620.396</v>
       </c>
-      <c r="Q26" s="299"/>
+      <c r="Q26" s="304"/>
       <c r="R26" s="115" t="s">
         <v>7</v>
       </c>
@@ -6096,7 +6112,7 @@
       <c r="AE26" s="19"/>
       <c r="AL26" s="60"/>
     </row>
-    <row r="27" spans="2:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="98"/>
       <c r="D27" s="96"/>
       <c r="G27" s="80"/>
@@ -6105,15 +6121,15 @@
       <c r="M27" s="275" t="s">
         <v>289</v>
       </c>
-      <c r="P27" s="300">
+      <c r="P27" s="305">
         <v>5.9623212521267233E-2</v>
       </c>
-      <c r="Q27" s="300"/>
+      <c r="Q27" s="305"/>
       <c r="Y27" s="58"/>
       <c r="AE27" s="19"/>
       <c r="AL27" s="60"/>
     </row>
-    <row r="28" spans="2:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="87"/>
       <c r="C28" s="86"/>
       <c r="D28" s="85"/>
@@ -6141,7 +6157,7 @@
       </c>
       <c r="AL28" s="60"/>
     </row>
-    <row r="29" spans="2:38" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:38" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G29" s="80"/>
       <c r="J29" s="7"/>
       <c r="Y29" s="58"/>
@@ -6152,7 +6168,7 @@
       <c r="AB29" s="96"/>
       <c r="AL29" s="60"/>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.3">
       <c r="G30" s="80"/>
       <c r="J30" s="25"/>
       <c r="Y30" s="58"/>
@@ -6163,7 +6179,7 @@
       <c r="AB30" s="96"/>
       <c r="AL30" s="60"/>
     </row>
-    <row r="31" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G31" s="80"/>
       <c r="J31" s="25"/>
       <c r="Y31" s="6"/>
@@ -6179,7 +6195,7 @@
       </c>
       <c r="AL31" s="60"/>
     </row>
-    <row r="32" spans="2:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="113"/>
       <c r="C32" s="112"/>
       <c r="D32" s="111"/>
@@ -6208,7 +6224,7 @@
       <c r="AK32" s="35"/>
       <c r="AL32" s="34"/>
     </row>
-    <row r="33" spans="2:31" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:31" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B33" s="98"/>
       <c r="C33" s="49" t="s">
         <v>110</v>
@@ -6217,7 +6233,7 @@
       <c r="J33" s="25"/>
       <c r="AE33" s="25"/>
     </row>
-    <row r="34" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="87"/>
       <c r="C34" s="86"/>
       <c r="D34" s="85"/>
@@ -6246,7 +6262,7 @@
       <c r="AD34" s="11"/>
       <c r="AE34" s="10"/>
     </row>
-    <row r="35" spans="2:31" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:31" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="P23:Q23"/>
@@ -6268,7 +6284,7 @@
       <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6278,28 +6294,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="42.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" customWidth="1"/>
-    <col min="11" max="12" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="247" t="s">
         <v>30</v>
       </c>
@@ -6311,7 +6327,7 @@
       <c r="H2" s="161"/>
       <c r="I2" s="161"/>
     </row>
-    <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="162"/>
       <c r="C3" s="161"/>
       <c r="D3" s="161"/>
@@ -6321,7 +6337,7 @@
       <c r="H3" s="161"/>
       <c r="I3" s="161"/>
     </row>
-    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="162" t="s">
         <v>31</v>
       </c>
@@ -6385,7 +6401,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
         <v>170</v>
       </c>
@@ -6515,204 +6531,280 @@
       <c r="H12" s="280"/>
       <c r="I12" s="280"/>
     </row>
-    <row r="13" spans="2:9" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:9" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="247" t="s">
+    <row r="13" spans="2:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" t="s">
+        <v>299</v>
+      </c>
+      <c r="G15" t="s">
+        <v>301</v>
+      </c>
+      <c r="H15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="306">
+        <v>0.18</v>
+      </c>
+      <c r="D17" s="163" t="str">
+        <f>C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F17" t="s">
+        <v>304</v>
+      </c>
+      <c r="G17" s="163" t="str">
+        <f>C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="H17">
+        <v>2020</v>
+      </c>
+      <c r="I17">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="163"/>
+    </row>
+    <row r="19" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B19" s="247" t="s">
         <v>280</v>
       </c>
-      <c r="C15" s="248"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-    </row>
-    <row r="17" spans="2:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="B17" s="162" t="s">
+      <c r="C19" s="248"/>
+      <c r="D19" s="248"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="162" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-    </row>
-    <row r="18" spans="2:9" ht="13" x14ac:dyDescent="0.25">
-      <c r="B18" s="273" t="s">
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="273" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="273" t="s">
+      <c r="C22" s="273" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="273" t="s">
+      <c r="D22" s="273" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="273" t="s">
+      <c r="E22" s="273" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="273" t="s">
+      <c r="F22" s="273" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="273" t="s">
+      <c r="G22" s="273" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="273" t="s">
+      <c r="H22" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="273" t="s">
+      <c r="I22" s="273" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="171" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="265" t="s">
+      <c r="C23" s="265" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="171" t="s">
+      <c r="D23" s="171" t="s">
         <v>275</v>
       </c>
-      <c r="E19" s="266" t="s">
+      <c r="E23" s="266" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="197" t="s">
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="267" t="s">
+      <c r="C24" s="267" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="197" t="s">
+      <c r="D24" s="197" t="s">
         <v>276</v>
       </c>
-      <c r="E20" s="268" t="s">
+      <c r="E24" s="268" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="196"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="171" t="s">
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="196"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="265" t="s">
+      <c r="C25" s="265" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="171" t="s">
+      <c r="D25" s="171" t="s">
         <v>277</v>
       </c>
-      <c r="E21" s="266" t="s">
+      <c r="E25" s="266" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="197" t="s">
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="267" t="s">
+      <c r="C26" s="267" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="197" t="s">
+      <c r="D26" s="197" t="s">
         <v>278</v>
       </c>
-      <c r="E22" s="227" t="s">
+      <c r="E26" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="196"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="196"/>
-      <c r="I22" s="196"/>
-    </row>
-    <row r="23" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="269" t="s">
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="196"/>
+    </row>
+    <row r="27" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="269" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="270" t="s">
+      <c r="C27" s="270" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="269" t="s">
+      <c r="D27" s="269" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="271" t="s">
+      <c r="E27" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="272"/>
-      <c r="G23" s="272"/>
-      <c r="H23" s="272"/>
-      <c r="I23" s="272"/>
-    </row>
-    <row r="25" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="294" t="s">
+      <c r="F27" s="272"/>
+      <c r="G27" s="272"/>
+      <c r="H27" s="272"/>
+      <c r="I27" s="272"/>
+    </row>
+    <row r="29" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="299" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="294"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="246" t="s">
+      <c r="C29" s="299"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="246" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="246" t="s">
+      <c r="C30" s="246" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="124" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="124" t="s">
+      <c r="C31" s="124" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="122" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C32" s="122" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="124" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="124" t="s">
+      <c r="C33" s="124" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="118" t="s">
+    <row r="34" spans="2:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="118" t="s">
+      <c r="C34" s="118" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6727,27 +6819,27 @@
   <sheetPr codeName="Arkusz2"/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="58" customWidth="1"/>
-    <col min="6" max="10" width="21.81640625" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="6" max="10" width="21.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="250"/>
       <c r="C1" s="175"/>
       <c r="D1" s="175"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="152"/>
       <c r="B2" s="251" t="s">
         <v>69</v>
@@ -6762,7 +6854,7 @@
       <c r="J2" s="163"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="162" t="s">
         <v>70</v>
       </c>
@@ -6833,7 +6925,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
         <v>176</v>
       </c>
@@ -6866,237 +6958,237 @@
       <c r="B8" s="277" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="301" t="s">
+      <c r="C8" s="284" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="301" t="s">
+      <c r="D8" s="284" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="301" t="s">
+      <c r="E8" s="284" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="301" t="s">
+      <c r="F8" s="284" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="301" t="s">
+      <c r="G8" s="284" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="301" t="s">
+      <c r="H8" s="284" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="301"/>
-      <c r="J8" s="301"/>
+      <c r="I8" s="284"/>
+      <c r="J8" s="284"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="302" t="s">
+      <c r="B9" s="279" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="303" t="s">
+      <c r="C9" s="285" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="303" t="s">
+      <c r="D9" s="285" t="s">
         <v>233</v>
       </c>
-      <c r="E9" s="303" t="s">
+      <c r="E9" s="285" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="303" t="s">
+      <c r="F9" s="285" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="303" t="s">
+      <c r="G9" s="285" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="303" t="s">
+      <c r="H9" s="285" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="303"/>
-      <c r="J9" s="303"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="285"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="304" t="s">
+      <c r="B10" s="278" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="305" t="s">
+      <c r="C10" s="286" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="305" t="s">
+      <c r="D10" s="286" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="305" t="s">
+      <c r="E10" s="286" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="305" t="s">
+      <c r="F10" s="286" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="305" t="s">
+      <c r="G10" s="286" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="305" t="s">
+      <c r="H10" s="286" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="305"/>
-      <c r="J10" s="305"/>
+      <c r="I10" s="286"/>
+      <c r="J10" s="286"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="302" t="s">
+      <c r="B11" s="279" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="303" t="s">
+      <c r="C11" s="285" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="303" t="s">
+      <c r="D11" s="285" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="303" t="s">
+      <c r="E11" s="285" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="303" t="s">
+      <c r="F11" s="285" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="303" t="s">
+      <c r="G11" s="285" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="303" t="s">
+      <c r="H11" s="285" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="303"/>
-      <c r="J11" s="303"/>
+      <c r="I11" s="285"/>
+      <c r="J11" s="285"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="304" t="s">
+      <c r="B12" s="278" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="305" t="s">
+      <c r="C12" s="286" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="305" t="s">
+      <c r="D12" s="286" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="305" t="s">
+      <c r="E12" s="286" t="s">
         <v>283</v>
       </c>
-      <c r="F12" s="305" t="s">
+      <c r="F12" s="286" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="305" t="s">
+      <c r="G12" s="286" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="305" t="s">
+      <c r="H12" s="286" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="305"/>
-      <c r="J12" s="305"/>
+      <c r="I12" s="286"/>
+      <c r="J12" s="286"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="279" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="303" t="s">
+      <c r="C13" s="285" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="303" t="s">
+      <c r="D13" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="303" t="s">
+      <c r="E13" s="285" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="303" t="s">
+      <c r="F13" s="285" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="303" t="s">
+      <c r="G13" s="285" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="303" t="s">
+      <c r="H13" s="285" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="304" t="s">
+      <c r="B14" s="278" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="305" t="s">
+      <c r="C14" s="286" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="305" t="s">
+      <c r="D14" s="286" t="s">
         <v>296</v>
       </c>
-      <c r="E14" s="305" t="s">
+      <c r="E14" s="286" t="s">
         <v>297</v>
       </c>
-      <c r="F14" s="305" t="s">
+      <c r="F14" s="286" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="305" t="s">
+      <c r="G14" s="286" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="305" t="s">
+      <c r="H14" s="286" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="305"/>
-      <c r="J14" s="305"/>
+      <c r="I14" s="286"/>
+      <c r="J14" s="286"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="302" t="s">
+      <c r="B15" s="279" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="303" t="s">
+      <c r="C15" s="285" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="303" t="s">
+      <c r="D15" s="285" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="303" t="s">
+      <c r="E15" s="285" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="303" t="s">
+      <c r="F15" s="285" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="303" t="s">
+      <c r="G15" s="285" t="s">
         <v>199</v>
       </c>
-      <c r="H15" s="303" t="s">
+      <c r="H15" s="285" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="303"/>
-      <c r="J15" s="303"/>
+      <c r="I15" s="285"/>
+      <c r="J15" s="285"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="306" t="s">
+      <c r="C16" s="287" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="306" t="s">
+      <c r="D16" s="287" t="s">
         <v>294</v>
       </c>
-      <c r="E16" s="306" t="s">
+      <c r="E16" s="287" t="s">
         <v>291</v>
       </c>
-      <c r="F16" s="306" t="s">
+      <c r="F16" s="287" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="306" t="s">
+      <c r="G16" s="287" t="s">
         <v>199</v>
       </c>
-      <c r="H16" s="306" t="s">
+      <c r="H16" s="287" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="306"/>
-      <c r="J16" s="306"/>
-    </row>
-    <row r="17" spans="2:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="F17" s="295"/>
-      <c r="G17" s="295"/>
+      <c r="I16" s="287"/>
+      <c r="J16" s="287"/>
+    </row>
+    <row r="17" spans="2:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="300"/>
+      <c r="G17" s="300"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="296" t="s">
+      <c r="B19" s="301" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="296"/>
-      <c r="D19" s="296"/>
+      <c r="C19" s="301"/>
+      <c r="D19" s="301"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="122" t="s">
@@ -7178,7 +7270,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="118" t="s">
         <v>98</v>
       </c>
@@ -7209,30 +7301,30 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="44.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
-    <col min="11" max="14" width="7.6328125" customWidth="1"/>
-    <col min="15" max="15" width="15.90625" customWidth="1"/>
-    <col min="16" max="16" width="10.90625" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="17.90625" customWidth="1"/>
+    <col min="19" max="19" width="17.88671875" customWidth="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" customWidth="1"/>
-    <col min="24" max="24" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="249" t="s">
         <v>119</v>
       </c>
@@ -7251,7 +7343,7 @@
       <c r="R2" s="146"/>
       <c r="S2" s="147"/>
     </row>
-    <row r="3" spans="2:30" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="150"/>
       <c r="C3" s="144"/>
       <c r="E3" s="145"/>
@@ -7268,7 +7360,7 @@
       <c r="R3" s="146"/>
       <c r="S3" s="147"/>
     </row>
-    <row r="4" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="155" t="s">
         <v>120</v>
       </c>
@@ -7287,7 +7379,7 @@
       <c r="R4" s="154"/>
       <c r="S4" s="154"/>
     </row>
-    <row r="5" spans="2:30" s="143" customFormat="1" ht="49.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" s="143" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="136" t="s">
         <v>73</v>
       </c>
@@ -7346,7 +7438,7 @@
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="2:30" ht="53.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
         <v>131</v>
       </c>
@@ -7365,15 +7457,15 @@
       <c r="G6" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="297" t="s">
+      <c r="H6" s="302" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="297"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="297"/>
-      <c r="L6" s="297"/>
-      <c r="M6" s="297"/>
-      <c r="N6" s="297"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="302"/>
+      <c r="N6" s="302"/>
       <c r="O6" s="138" t="s">
         <v>137</v>
       </c>
@@ -7411,15 +7503,15 @@
       <c r="G7" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="H7" s="298" t="s">
+      <c r="H7" s="303" t="s">
         <v>182</v>
       </c>
-      <c r="I7" s="298"/>
-      <c r="J7" s="298"/>
-      <c r="K7" s="298"/>
-      <c r="L7" s="298"/>
-      <c r="M7" s="298"/>
-      <c r="N7" s="298"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="303"/>
+      <c r="M7" s="303"/>
+      <c r="N7" s="303"/>
       <c r="O7" s="137" t="s">
         <v>186</v>
       </c>
@@ -7448,7 +7540,7 @@
         <v>Existing Hard Coal Power Plants</v>
       </c>
       <c r="D8" s="234" t="str">
-        <f>SEC_Comm!C19</f>
+        <f>SEC_Comm!C23</f>
         <v>HC</v>
       </c>
       <c r="E8" s="234" t="str">
@@ -7514,7 +7606,7 @@
         <v>Existing Brown Coal Power Plants</v>
       </c>
       <c r="D9" s="244" t="str">
-        <f>SEC_Comm!C20</f>
+        <f>SEC_Comm!C24</f>
         <v>BC</v>
       </c>
       <c r="E9" s="235" t="str">
@@ -7570,7 +7662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="249" t="s">
         <v>245</v>
       </c>
@@ -7661,7 +7753,7 @@
       <c r="AC16" s="142"/>
       <c r="AD16" s="182"/>
     </row>
-    <row r="17" spans="2:30" ht="61.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="133" t="s">
         <v>131</v>
       </c>
@@ -7708,7 +7800,7 @@
       <c r="Z17" s="180"/>
       <c r="AD17" s="183"/>
     </row>
-    <row r="18" spans="2:30" ht="79.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:30" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="131" t="s">
         <v>190</v>
       </c>
@@ -7978,27 +8070,27 @@
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="B2:S16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" customWidth="1"/>
-    <col min="4" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" customWidth="1"/>
-    <col min="7" max="7" width="26.36328125" customWidth="1"/>
-    <col min="8" max="14" width="7.54296875" customWidth="1"/>
-    <col min="15" max="15" width="16.08984375" customWidth="1"/>
-    <col min="16" max="16" width="13.90625" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" customWidth="1"/>
-    <col min="18" max="18" width="20.08984375" customWidth="1"/>
-    <col min="19" max="19" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="14" width="7.5546875" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="249" t="s">
         <v>143</v>
       </c>
@@ -8017,7 +8109,7 @@
       <c r="R2" s="146"/>
       <c r="S2" s="147"/>
     </row>
-    <row r="3" spans="2:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="202"/>
       <c r="C3" s="144"/>
       <c r="E3" s="145"/>
@@ -8034,7 +8126,7 @@
       <c r="R3" s="146"/>
       <c r="S3" s="147"/>
     </row>
-    <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="155" t="s">
         <v>120</v>
       </c>
@@ -8052,7 +8144,7 @@
       <c r="Q4" s="154"/>
       <c r="R4" s="154"/>
     </row>
-    <row r="5" spans="2:19" s="143" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" s="143" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B5" s="253" t="s">
         <v>73</v>
       </c>
@@ -8106,7 +8198,7 @@
       </c>
       <c r="S5"/>
     </row>
-    <row r="6" spans="2:19" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
         <v>131</v>
       </c>
@@ -8125,15 +8217,15 @@
       <c r="G6" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="297" t="s">
+      <c r="H6" s="302" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="297"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="297"/>
-      <c r="L6" s="297"/>
-      <c r="M6" s="297"/>
-      <c r="N6" s="297"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="302"/>
+      <c r="N6" s="302"/>
       <c r="O6" s="138" t="s">
         <v>137</v>
       </c>
@@ -8147,7 +8239,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
         <v>190</v>
       </c>
@@ -8166,15 +8258,15 @@
       <c r="G7" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="H7" s="298" t="s">
+      <c r="H7" s="303" t="s">
         <v>182</v>
       </c>
-      <c r="I7" s="298"/>
-      <c r="J7" s="298"/>
-      <c r="K7" s="298"/>
-      <c r="L7" s="298"/>
-      <c r="M7" s="298"/>
-      <c r="N7" s="298"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="303"/>
+      <c r="M7" s="303"/>
+      <c r="N7" s="303"/>
       <c r="O7" s="137" t="s">
         <v>186</v>
       </c>
@@ -8198,7 +8290,7 @@
         <v>Existing Onshore Wind Turbines</v>
       </c>
       <c r="D8" s="166" t="str">
-        <f>SEC_Comm!C22</f>
+        <f>SEC_Comm!C26</f>
         <v>WIND-ON</v>
       </c>
       <c r="E8" s="166" t="str">
@@ -8234,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="236">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="P8" s="236">
         <f>BALANCE!E13/BALANCE!D13*1000/8760+0.01</f>
@@ -8258,7 +8350,7 @@
         <v>Existing Photovoltaics (all Types)</v>
       </c>
       <c r="D9" s="195" t="str">
-        <f>SEC_Comm!C23</f>
+        <f>SEC_Comm!C27</f>
         <v>SOLAR</v>
       </c>
       <c r="E9" s="195" t="str">
@@ -8294,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="237">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="P9" s="237">
         <v>1</v>
@@ -8335,25 +8427,25 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" customWidth="1"/>
-    <col min="8" max="9" width="15.6328125" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" customWidth="1"/>
+    <col min="4" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="12.6328125" customWidth="1"/>
+    <col min="12" max="13" width="12.6640625" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="13.36328125" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" customWidth="1"/>
-    <col min="18" max="18" width="3.6328125" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="249" t="s">
         <v>147</v>
       </c>
@@ -8366,7 +8458,7 @@
       <c r="P2" s="146"/>
       <c r="Q2" s="147"/>
     </row>
-    <row r="3" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="150"/>
       <c r="C3" s="144"/>
       <c r="E3" s="145"/>
@@ -8377,7 +8469,7 @@
       <c r="P3" s="146"/>
       <c r="Q3" s="147"/>
     </row>
-    <row r="4" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="155" t="s">
         <v>120</v>
       </c>
@@ -8394,7 +8486,7 @@
       <c r="P4" s="154"/>
       <c r="Q4" s="154"/>
     </row>
-    <row r="5" spans="2:18" s="143" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" s="143" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B5" s="253" t="s">
         <v>73</v>
       </c>
@@ -8495,7 +8587,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
         <v>190</v>
       </c>
@@ -8555,7 +8647,7 @@
         <v>Existing Hard Coal CHPs - backpressure turbine</v>
       </c>
       <c r="D8" s="166" t="str">
-        <f>SEC_Comm!C19</f>
+        <f>SEC_Comm!C23</f>
         <v>HC</v>
       </c>
       <c r="E8" s="166"/>
@@ -8648,7 +8740,7 @@
         <v>Existing Natural Gas CHPs - pass-out turbine</v>
       </c>
       <c r="D11" s="187" t="str">
-        <f>SEC_Comm!C20</f>
+        <f>SEC_Comm!C24</f>
         <v>BC</v>
       </c>
       <c r="E11" s="187"/>
@@ -8744,25 +8836,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC31532-7354-4591-8AE5-CE701215297D}">
   <dimension ref="B2:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="24.453125" customWidth="1"/>
+    <col min="2" max="3" width="24.44140625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" customWidth="1"/>
-    <col min="10" max="10" width="12.36328125" customWidth="1"/>
-    <col min="11" max="11" width="14.6328125" customWidth="1"/>
-    <col min="12" max="12" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="249" t="s">
         <v>295</v>
       </c>
@@ -8774,7 +8866,7 @@
       <c r="K2" s="146"/>
       <c r="L2" s="147"/>
     </row>
-    <row r="3" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="150"/>
       <c r="C3" s="144"/>
       <c r="E3" s="145"/>
@@ -8784,7 +8876,7 @@
       <c r="K3" s="146"/>
       <c r="L3" s="147"/>
     </row>
-    <row r="4" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E4" s="155" t="s">
         <v>120</v>
       </c>
@@ -8796,7 +8888,7 @@
       <c r="K4" s="154"/>
       <c r="L4" s="154"/>
     </row>
-    <row r="5" spans="2:12" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B5" s="253" t="s">
         <v>73</v>
       </c>
@@ -8831,7 +8923,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
         <v>131</v>
       </c>
@@ -8866,7 +8958,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
         <v>190</v>
       </c>
@@ -8911,14 +9003,14 @@
         <v>Existing Hard Coal Heating Plants</v>
       </c>
       <c r="D8" t="str">
-        <f>SEC_Comm!C19</f>
+        <f>SEC_Comm!C23</f>
         <v>HC</v>
       </c>
       <c r="E8" t="str">
         <f>SEC_Comm!C10</f>
         <v>HEAT_HT</v>
       </c>
-      <c r="F8" s="307">
+      <c r="F8" s="288">
         <f>(BALANCE!F15/10^3)/(BALANCE!G15*BALANCE!H15/10^6)</f>
         <v>0.84618852121111177</v>
       </c>
@@ -8958,37 +9050,37 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="66.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="66.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="3.6328125" customWidth="1"/>
-    <col min="9" max="9" width="53.36328125" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" customWidth="1"/>
+    <col min="9" max="9" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="249" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="160"/>
       <c r="E2" s="145"/>
     </row>
-    <row r="3" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="150"/>
       <c r="C3" s="144"/>
       <c r="E3" s="145"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="155" t="s">
         <v>120</v>
       </c>
       <c r="F4" s="153"/>
     </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="253" t="s">
         <v>73</v>
       </c>
@@ -9092,7 +9184,7 @@
         <v>0.14100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H10" s="274"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -9113,6 +9205,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0111623235845aab2bc86c0e7049642">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9f4b9a3337047529e19b1dde5d7862c" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -9307,27 +9419,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F99E302-BE07-471D-8957-5C4CD95A5852}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9344,25 +9457,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>